--- a/biology/Botanique/Aegiphila_villosa/Aegiphila_villosa.xlsx
+++ b/biology/Botanique/Aegiphila_villosa/Aegiphila_villosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegiphila villosa est une  espèce arbustive du plateau des Guyanes (souvent confondue avec Aegiphila integrifolia), appartenant à la famille des Lamiaceae (anciennement des Verbenaceae).
-On l'appelle en Guyane bois calou, tabac sauvage, feuille tabac, bois tabac, a'ɨ makule (Wayãpi), aigβan (Palikur), camaá (portugais)[3], ou au Guyana moracooballi[4].
+On l'appelle en Guyane bois calou, tabac sauvage, feuille tabac, bois tabac, a'ɨ makule (Wayãpi), aigβan (Palikur), camaá (portugais), ou au Guyana moracooballi.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegiphila villosa est un arbuste ou petit arbre, atteignant 2-7 m de haut.
 Les branches, les pétioles et les inflorescences sont couvertes de villosités ou de lanières d'un blanc jaunâtre dense.
@@ -527,7 +541,7 @@
 On compte 4 ou 5 étamines, glabres, insérées 3-4 mm au-dessus de la base du tube de la corolle, avec des filets longs de 3-4 mm chez les fleurs à style court 0,5 mm de long dans les fleurs à style long), et des anthères longues de 1 mm.
 L'ovaire est glabre, subglobuleux, long de 0,5 mm, à style glabre, long de 4 mm dans les fleurs à style court, dont 1 mm pour la bifurcation.
 Lors de la fructification, le calice fructifère est cupuliforme, longs d'environ 6 mm, pour 8 mm de diamètre.
-Le fruit est globuleux, lisse et brillant, de couleur vert jaunâtre, et mesurant environ 8 mm de diamètre[4], contenant 2 graines, d'une taille comprise entre 2 et 5 mm[5].
+Le fruit est globuleux, lisse et brillant, de couleur vert jaunâtre, et mesurant environ 8 mm de diamètre, contenant 2 graines, d'une taille comprise entre 2 et 5 mm.
 </t>
         </is>
       </c>
@@ -556,9 +570,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Aegiphila villosa du Guyana à l'Amapá (Brésil) en passant par la Guyane[4] et le Suriname[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Aegiphila villosa du Guyana à l'Amapá (Brésil) en passant par la Guyane et le Suriname.
 </t>
         </is>
       </c>
@@ -587,10 +603,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aegiphila villosa est une espèce zoochore[5], localement commune en forêt secondaire et dans les bosquets de savane[3].
-Il fleurit de février à septembre, et fructifie en juin, août et septembre[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aegiphila villosa est une espèce zoochore, localement commune en forêt secondaire et dans les bosquets de savane.
+Il fleurit de février à septembre, et fructifie en juin, août et septembre.
 Les fleurs sont hétérostylées.
 </t>
         </is>
@@ -620,10 +638,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Guyane, les Palikur emploient ses feuilles séchées des usages narcotiques et médicinaux à la façon du tabac.
-Les Wayãpi préparent un bain fébrifuge avec les feuilles et l'écorce du tronc[3].
+Les Wayãpi préparent un bain fébrifuge avec les feuilles et l'écorce du tronc.
 </t>
         </is>
       </c>
@@ -652,9 +672,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit pour la première fois Aegiphila villosa sous le nom de Manabea arborescens et en a proposé le protologue suivant[7] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit pour la première fois Aegiphila villosa sous le nom de Manabea arborescens et en a proposé le protologue suivant : 
 « 1. MANABEA (villoſa)  foliis ovatis, ſubtùs incanis ; floribus vireſcentibus, glomeratis. (Tabula 23.)
 Frutex, octopedalis, caules plures, tetragonos, ramoſos, rectos, incanos è radice emittens. Folia oppoſita, inæqualia, uno majore, altero minore, acuta, integerrima, ſupernè viridia, infernè tomentoſa, incana, brevi petiolata. Flores corymboſi, ſubaxillares ; corymbis oppoſitis; pedunculo communi tripartito ; ramis ad baſim biglanduloſis, capiculo florum terminatis. Corolla ſubviridis.
 Nomen gallicum, BOIS-TABAC.
